--- a/Ausführung.xlsx
+++ b/Ausführung.xlsx
@@ -11283,7 +11283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -11332,15 +11332,28 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Kreislaufwirtschaft</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ressourcenabflüsse im Zusammenhang mit Produkten und Dienstleistungen</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Umweltverschmutzung</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Bodenverschmutzung</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Ausführung.xlsx
+++ b/Ausführung.xlsx
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -599,88 +599,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Betroffene Gemeinschaften</t>
+          <t>Klimawandel</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bürgerrechte und politische Rechte von Gemeinschaften</t>
+          <t>Anpassung an den Klimawandel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Meinungsfreiheit</t>
+          <t>a</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Eigene Belegschaft</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Arbeitsbedingungen</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sichere Beschäftigung</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Meeres- und Wasserressourcen</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Gewinnung und Nutzung von Meeresressourcen</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Klimawandel</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Anpassung an den Klimawandel</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Klimawandel</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Energie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Klimawandel</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Klimaschutz</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Ausführung.xlsx
+++ b/Ausführung.xlsx
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -599,17 +599,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Klimawandel</t>
+          <t>Belegschaft Lieferkette</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anpassung an den Klimawandel</t>
+          <t>Arbeitsbedingungen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Angemessene Entlohnung</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Biodiversität</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Direkte Ausbeutung</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Externes Thema 1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Externes Unterthema 1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Externes Unter-Unterthema 1</t>
         </is>
       </c>
     </row>

--- a/Ausführung.xlsx
+++ b/Ausführung.xlsx
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -599,53 +599,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Belegschaft Lieferkette</t>
+          <t>Klimawandel</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arbeitsbedingungen</t>
+          <t>Anpassung an den Klimawandel</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Angemessene Entlohnung</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Biodiversität</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Direkte Ursachen des Biodiversitätsverlusts</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Direkte Ausbeutung</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Externes Thema 1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Externes Unterthema 1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Externes Unter-Unterthema 1</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Ausführung.xlsx
+++ b/Ausführung.xlsx
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -609,6 +609,19 @@
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Klimawandel</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Klimaschutz</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
